--- a/data/nonfarm-payrolls.xlsx
+++ b/data/nonfarm-payrolls.xlsx
@@ -1,65 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanMcLean\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014267F0-2F89-4255-96F9-A5EF39B61D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>% Change vs Last Year</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -78,27 +46,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -418,157 +445,231 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col width="9.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>% Change vs Last Year</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>143</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B14-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>45657</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="2" t="n">
         <v>256</v>
       </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C4" si="0">(B2/B14-1)*100</f>
-        <v>-11.724137931034484</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="C3">
+        <f>(B3/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>45626</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2" t="n">
         <v>212</v>
       </c>
-      <c r="C3">
-        <f t="shared" si="0"/>
-        <v>16.483516483516492</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="C4">
+        <f>(B4/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>45596</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>-73.939393939393938</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="C5">
+        <f>(B5/B17-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>45565</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2" t="n">
         <v>255</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="C6">
+        <f>(B6/B18-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>45535</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2" t="n">
         <v>78</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="C7">
+        <f>(B7/B19-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>45504</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2" t="n">
         <v>144</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="C8">
+        <f>(B8/B20-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>45473</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2" t="n">
         <v>118</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="C9">
+        <f>(B9/B21-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>45443</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2" t="n">
         <v>216</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="C10">
+        <f>(B10/B22-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>45412</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2" t="n">
         <v>108</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="C11">
+        <f>(B11/B23-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>45382</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2" t="n">
         <v>310</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="C12">
+        <f>(B12/B24-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>45351</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2" t="n">
         <v>236</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="C13">
+        <f>(B13/B25-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>45322</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2" t="n">
         <v>256</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="C14">
+        <f>(B14/B26-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>45291</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2" t="n">
         <v>290</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="C15">
+        <f>(B15/B27-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>45260</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2" t="n">
         <v>182</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="C16">
+        <f>(B16/B28-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>45230</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2" t="n">
         <v>165</v>
+      </c>
+      <c r="C17">
+        <f>(B17/B29-1)*100</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/data/nonfarm-payrolls.xlsx
+++ b/data/nonfarm-payrolls.xlsx
@@ -1,33 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9BB52E-668A-4610-8BCD-F83B2CA3B7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3936" yWindow="3696" windowWidth="17280" windowHeight="9984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>% Change vs Last Year</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,86 +78,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -445,231 +418,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col width="9.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="9.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>% Change vs Last Year</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-01-01</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B2" s="2">
         <v>143</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>45657</v>
-      </c>
-      <c r="B3" s="2" t="n">
+        <v>-44.140625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B3" s="2">
         <v>256</v>
       </c>
       <c r="C3">
-        <f>(B3/B15-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>45626</v>
-      </c>
-      <c r="B4" s="2" t="n">
+        <f t="shared" ref="C3:C5" si="0">(B3/B15-1)*100</f>
+        <v>-11.724137931034484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B4" s="2">
         <v>212</v>
       </c>
       <c r="C4">
-        <f>(B4/B16-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>45596</v>
-      </c>
-      <c r="B5" s="2" t="n">
+        <f t="shared" si="0"/>
+        <v>16.483516483516492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B5" s="2">
         <v>43</v>
       </c>
       <c r="C5">
-        <f>(B5/B17-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>45565</v>
-      </c>
-      <c r="B6" s="2" t="n">
+        <f t="shared" si="0"/>
+        <v>-73.939393939393938</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B6" s="2">
         <v>255</v>
       </c>
-      <c r="C6">
-        <f>(B6/B18-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>45535</v>
-      </c>
-      <c r="B7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B7" s="2">
         <v>78</v>
       </c>
-      <c r="C7">
-        <f>(B7/B19-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>45504</v>
-      </c>
-      <c r="B8" s="2" t="n">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B8" s="2">
         <v>144</v>
       </c>
-      <c r="C8">
-        <f>(B8/B20-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>45473</v>
-      </c>
-      <c r="B9" s="2" t="n">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B9" s="2">
         <v>118</v>
       </c>
-      <c r="C9">
-        <f>(B9/B21-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>45443</v>
-      </c>
-      <c r="B10" s="2" t="n">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B10" s="2">
         <v>216</v>
       </c>
-      <c r="C10">
-        <f>(B10/B22-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>45412</v>
-      </c>
-      <c r="B11" s="2" t="n">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B11" s="2">
         <v>108</v>
       </c>
-      <c r="C11">
-        <f>(B11/B23-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>45382</v>
-      </c>
-      <c r="B12" s="2" t="n">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B12" s="2">
         <v>310</v>
       </c>
-      <c r="C12">
-        <f>(B12/B24-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>45351</v>
-      </c>
-      <c r="B13" s="2" t="n">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B13" s="2">
         <v>236</v>
       </c>
-      <c r="C13">
-        <f>(B13/B25-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>45322</v>
-      </c>
-      <c r="B14" s="2" t="n">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B14" s="2">
         <v>256</v>
       </c>
-      <c r="C14">
-        <f>(B14/B26-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>45291</v>
-      </c>
-      <c r="B15" s="2" t="n">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B15" s="2">
         <v>290</v>
       </c>
-      <c r="C15">
-        <f>(B15/B27-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>45260</v>
-      </c>
-      <c r="B16" s="2" t="n">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B16" s="2">
         <v>182</v>
       </c>
-      <c r="C16">
-        <f>(B16/B28-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>45230</v>
-      </c>
-      <c r="B17" s="2" t="n">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1">
+        <v>45200</v>
+      </c>
+      <c r="B17" s="2">
         <v>165</v>
-      </c>
-      <c r="C17">
-        <f>(B17/B29-1)*100</f>
-        <v/>
       </c>
     </row>
   </sheetData>

--- a/data/nonfarm-payrolls.xlsx
+++ b/data/nonfarm-payrolls.xlsx
@@ -1,65 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9BB52E-668A-4610-8BCD-F83B2CA3B7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3936" yWindow="3696" windowWidth="17280" windowHeight="9984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3936" yWindow="3696" windowWidth="17280" windowHeight="9984" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>% Change vs Last Year</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -78,27 +46,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -418,169 +445,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col width="9.83984375" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1">
-        <v>45658</v>
-      </c>
-      <c r="B2" s="2">
-        <v>143</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>% Change vs Last Year</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>151</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
-        <v>-44.140625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="C3">
+        <f>(B3/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>45627</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2" t="n">
         <v>256</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C5" si="0">(B3/B15-1)*100</f>
-        <v>-11.724137931034484</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1">
+      <c r="C4">
+        <f>(B4/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>45597</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2" t="n">
         <v>212</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>16.483516483516492</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1">
+      <c r="C5">
+        <f>(B5/B17-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>45566</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>-73.939393939393938</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1">
+      <c r="C6">
+        <f>(B6/B18-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>45536</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2" t="n">
         <v>255</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1">
+      <c r="C7">
+        <f>(B7/B19-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>45505</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2" t="n">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1">
+      <c r="C8">
+        <f>(B8/B20-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>45474</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2" t="n">
         <v>144</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1">
+      <c r="C9">
+        <f>(B9/B21-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>45444</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2" t="n">
         <v>118</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1">
+      <c r="C10">
+        <f>(B10/B22-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>45413</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2" t="n">
         <v>216</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1">
+      <c r="C11">
+        <f>(B11/B23-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>45383</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2" t="n">
         <v>108</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1">
+      <c r="C12">
+        <f>(B12/B24-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>45352</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2" t="n">
         <v>310</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1">
+      <c r="C13">
+        <f>(B13/B25-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>45323</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2" t="n">
         <v>236</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1">
+      <c r="C14">
+        <f>(B14/B26-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>45292</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2" t="n">
         <v>256</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1">
+      <c r="C15">
+        <f>(B15/B27-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>45261</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2" t="n">
         <v>290</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1">
+      <c r="C16">
+        <f>(B16/B28-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>45231</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2" t="n">
         <v>182</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1">
+      <c r="C17">
+        <f>(B17/B29-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>45200</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2" t="n">
         <v>165</v>
+      </c>
+      <c r="C18">
+        <f>(B18/B30-1)*100</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/data/nonfarm-payrolls.xlsx
+++ b/data/nonfarm-payrolls.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,23 +481,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>228</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B14-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2025-02-01</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>151</v>
-      </c>
-      <c r="C2">
-        <f>(B2/B14-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>45658</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>143</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -506,10 +508,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>256</v>
+        <v>143</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -518,10 +520,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -530,10 +532,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -542,10 +544,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>255</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -554,10 +556,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -566,10 +568,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -578,10 +580,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -590,10 +592,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -602,10 +604,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -614,10 +616,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>310</v>
+        <v>108</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -626,10 +628,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -638,10 +640,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -650,10 +652,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -662,10 +664,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>182</v>
+        <v>290</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -674,13 +676,25 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="C19">
+        <f>(B19/B31-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/nonfarm-payrolls.xlsx
+++ b/data/nonfarm-payrolls.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -495,23 +495,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>228</v>
+      </c>
+      <c r="C3">
+        <f>(B3/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2025-02-01</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>151</v>
-      </c>
-      <c r="C3">
-        <f>(B3/B15-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>45658</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>143</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -520,10 +522,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>256</v>
+        <v>143</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -532,10 +534,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -544,10 +546,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -556,10 +558,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>255</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -568,10 +570,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -580,10 +582,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -592,10 +594,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -604,10 +606,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -616,10 +618,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -628,10 +630,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>310</v>
+        <v>108</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -640,10 +642,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -652,10 +654,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -664,10 +666,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -676,10 +678,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>182</v>
+        <v>290</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -688,13 +690,25 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="C20">
+        <f>(B20/B32-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/nonfarm-payrolls.xlsx
+++ b/data/nonfarm-payrolls.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -495,11 +495,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -509,23 +509,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>228</v>
+      </c>
+      <c r="C4">
+        <f>(B4/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2025-02-01</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>151</v>
-      </c>
-      <c r="C4">
-        <f>(B4/B16-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>45658</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>143</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -534,10 +536,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>256</v>
+        <v>143</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -546,10 +548,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -558,10 +560,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -570,10 +572,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>255</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -582,10 +584,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -594,10 +596,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -606,10 +608,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -618,10 +620,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -630,10 +632,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -642,10 +644,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>310</v>
+        <v>108</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -654,10 +656,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -666,10 +668,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -678,10 +680,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -690,10 +692,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>182</v>
+        <v>290</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -702,13 +704,25 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="C21">
+        <f>(B21/B33-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/nonfarm-payrolls.xlsx
+++ b/data/nonfarm-payrolls.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -495,11 +495,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -509,11 +509,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -523,23 +523,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>228</v>
+      </c>
+      <c r="C5">
+        <f>(B5/B17-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>2025-02-01</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>151</v>
-      </c>
-      <c r="C5">
-        <f>(B5/B17-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>45658</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>143</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -548,10 +550,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>256</v>
+        <v>143</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -560,10 +562,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -572,10 +574,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -584,10 +586,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>255</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -596,10 +598,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -608,10 +610,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -620,10 +622,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -632,10 +634,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -644,10 +646,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -656,10 +658,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>310</v>
+        <v>108</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -668,10 +670,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -680,10 +682,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -692,10 +694,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -704,10 +706,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>182</v>
+        <v>290</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -716,13 +718,25 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="C22">
+        <f>(B22/B34-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/nonfarm-payrolls.xlsx
+++ b/data/nonfarm-payrolls.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -495,11 +495,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -509,11 +509,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -523,11 +523,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -537,11 +537,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151</v>
+        <v>228</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -549,11 +549,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>45658</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>143</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>151</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -562,10 +564,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>256</v>
+        <v>143</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -574,10 +576,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -586,10 +588,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -598,10 +600,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>255</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -610,10 +612,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -622,10 +624,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -634,10 +636,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -646,10 +648,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -658,10 +660,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -670,10 +672,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>310</v>
+        <v>108</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -682,10 +684,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -694,10 +696,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -706,10 +708,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -718,10 +720,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>182</v>
+        <v>290</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -730,13 +732,25 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="C23">
+        <f>(B23/B35-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/nonfarm-payrolls.xlsx
+++ b/data/nonfarm-payrolls.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -495,11 +495,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -509,11 +509,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -523,11 +523,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -537,11 +537,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -551,11 +551,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151</v>
+        <v>228</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -563,11 +563,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>45658</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>143</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>151</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -576,10 +578,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>256</v>
+        <v>143</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -588,10 +590,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -600,10 +602,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -612,10 +614,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>255</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -624,10 +626,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -636,10 +638,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -648,10 +650,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -660,10 +662,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -672,10 +674,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -684,10 +686,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>310</v>
+        <v>108</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -696,10 +698,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -708,10 +710,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -720,10 +722,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -732,10 +734,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>182</v>
+        <v>290</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -744,13 +746,25 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="C24">
+        <f>(B24/B36-1)*100</f>
         <v/>
       </c>
     </row>
